--- a/dbgpt_hub/data/tp_mis/all_table.xlsx
+++ b/dbgpt_hub/data/tp_mis/all_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Neuvix\NL2SQL\neuvix-git\DB-GPT-HUB\dbgpt_hub\data\tp_mis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3110C-62F0-4173-88CC-A208CF810908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AFFBD2-AD20-458F-9F5A-B25EFC3EA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2136" windowWidth="17280" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,18 @@
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_driver_basic_info</t>
+  </si>
+  <si>
+    <t>change_route_basic_info</t>
+  </si>
+  <si>
+    <t>change_ship_archives_basic_info</t>
+  </si>
+  <si>
+    <t>change_shipping_basic_work_data</t>
   </si>
 </sst>
 </file>
@@ -357,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -373,6 +385,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dbgpt_hub/data/tp_mis/all_table.xlsx
+++ b/dbgpt_hub/data/tp_mis/all_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Neuvix\NL2SQL\neuvix-git\DB-GPT-HUB\dbgpt_hub\data\tp_mis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AFFBD2-AD20-458F-9F5A-B25EFC3EA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9E6A3-4636-4D7B-8698-E71AC0BE9033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2136" windowWidth="17280" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10404" yWindow="2436" windowWidth="17280" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,22 @@
   </si>
   <si>
     <t>change_shipping_basic_work_data</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶基础表信息表</t>
+  </si>
+  <si>
+    <t>单船作业</t>
+  </si>
+  <si>
+    <t>航线基础信息表</t>
+  </si>
+  <si>
+    <t>驾驶员基础信息表</t>
   </si>
 </sst>
 </file>
@@ -369,52 +385,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
